--- a/Data/SalesTrend/SalesTrend_CKJ.xlsx
+++ b/Data/SalesTrend/SalesTrend_CKJ.xlsx
@@ -549,31 +549,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>86.45</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="C2">
-        <v>92.59</v>
+        <v>94.65000000000001</v>
       </c>
       <c r="D2">
-        <v>111.56</v>
+        <v>113.27</v>
       </c>
       <c r="E2">
-        <v>55.53</v>
+        <v>55.44</v>
       </c>
       <c r="F2">
-        <v>65.67</v>
+        <v>69.2</v>
       </c>
       <c r="G2">
-        <v>67.90000000000001</v>
+        <v>68.05</v>
       </c>
       <c r="H2">
-        <v>79.87</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="I2">
-        <v>39.6</v>
+        <v>39.92</v>
       </c>
       <c r="J2">
-        <v>91.79000000000001</v>
+        <v>93.31</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -581,31 +581,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>73.48999999999999</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="C3">
-        <v>87.84</v>
+        <v>93.66</v>
       </c>
       <c r="D3">
-        <v>129.54</v>
+        <v>133.72</v>
       </c>
       <c r="E3">
-        <v>36.28</v>
+        <v>34.77</v>
       </c>
       <c r="F3">
-        <v>49.79</v>
+        <v>47.72</v>
       </c>
       <c r="G3">
-        <v>65.76000000000001</v>
+        <v>67.19</v>
       </c>
       <c r="H3">
-        <v>75.25</v>
+        <v>75.79000000000001</v>
       </c>
       <c r="I3">
-        <v>43.66</v>
+        <v>44.29</v>
       </c>
       <c r="J3">
-        <v>94.84</v>
+        <v>97.45999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -613,31 +613,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>92.59999999999999</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="C4">
-        <v>63.55</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="D4">
-        <v>133.4</v>
+        <v>129.72</v>
       </c>
       <c r="E4">
-        <v>42.42</v>
+        <v>40.65</v>
       </c>
       <c r="F4">
-        <v>34.78</v>
+        <v>33.33</v>
       </c>
       <c r="G4">
-        <v>57.57</v>
+        <v>59.77</v>
       </c>
       <c r="H4">
-        <v>83.33</v>
+        <v>82.69</v>
       </c>
       <c r="I4">
-        <v>34.94</v>
+        <v>36.93</v>
       </c>
       <c r="J4">
-        <v>71.05</v>
+        <v>69.98</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -645,31 +645,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>69.40000000000001</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="C5">
-        <v>104.93</v>
+        <v>100.56</v>
       </c>
       <c r="D5">
-        <v>79.89</v>
+        <v>76.56</v>
       </c>
       <c r="E5">
-        <v>44.96</v>
+        <v>43.09</v>
       </c>
       <c r="F5">
-        <v>85.62</v>
+        <v>82.05</v>
       </c>
       <c r="G5">
-        <v>27.83</v>
+        <v>29.63</v>
       </c>
       <c r="H5">
-        <v>66.52</v>
+        <v>65.52</v>
       </c>
       <c r="I5">
-        <v>76.5</v>
+        <v>75.69</v>
       </c>
       <c r="J5">
-        <v>84</v>
+        <v>83.86</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -677,31 +677,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>98.34</v>
+        <v>107.27</v>
       </c>
       <c r="C6">
-        <v>151.47</v>
+        <v>161.29</v>
       </c>
       <c r="D6">
-        <v>192.14</v>
+        <v>201.45</v>
       </c>
       <c r="E6">
-        <v>43.27</v>
+        <v>41.46</v>
       </c>
       <c r="F6">
-        <v>49.1</v>
+        <v>47.06</v>
       </c>
       <c r="G6">
-        <v>43.06</v>
+        <v>60.32</v>
       </c>
       <c r="H6">
-        <v>92.52</v>
+        <v>94.13</v>
       </c>
       <c r="I6">
-        <v>44.48</v>
+        <v>42.62</v>
       </c>
       <c r="J6">
-        <v>131.3</v>
+        <v>135.83</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -709,31 +709,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>57.07</v>
+        <v>64.45999999999999</v>
       </c>
       <c r="C7">
-        <v>108.21</v>
+        <v>124.07</v>
       </c>
       <c r="D7">
-        <v>153.97</v>
+        <v>181.91</v>
       </c>
       <c r="E7">
-        <v>71.26000000000001</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="F7">
-        <v>78.26000000000001</v>
+        <v>75</v>
       </c>
       <c r="G7">
-        <v>149.07</v>
+        <v>142.86</v>
       </c>
       <c r="H7">
-        <v>63.45</v>
+        <v>69.18000000000001</v>
       </c>
       <c r="I7">
-        <v>23.91</v>
+        <v>30.87</v>
       </c>
       <c r="J7">
-        <v>101.6</v>
+        <v>110.53</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -741,31 +741,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>69.79000000000001</v>
+        <v>66.88</v>
       </c>
       <c r="C8">
-        <v>52.63</v>
+        <v>50.43</v>
       </c>
       <c r="D8">
-        <v>138.76</v>
+        <v>132.98</v>
       </c>
       <c r="E8">
-        <v>4.61</v>
+        <v>4.42</v>
       </c>
       <c r="F8">
-        <v>14.65</v>
+        <v>14.04</v>
       </c>
       <c r="G8">
-        <v>81.73999999999999</v>
+        <v>78.33</v>
       </c>
       <c r="H8">
-        <v>73.48</v>
+        <v>70.42</v>
       </c>
       <c r="I8">
-        <v>31.44</v>
+        <v>30.13</v>
       </c>
       <c r="J8">
-        <v>104.15</v>
+        <v>99.81</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -773,31 +773,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>62.26</v>
+        <v>67.34</v>
       </c>
       <c r="C9">
-        <v>72.73999999999999</v>
+        <v>69.70999999999999</v>
       </c>
       <c r="D9">
-        <v>81.75</v>
+        <v>86.02</v>
       </c>
       <c r="E9">
-        <v>14.42</v>
+        <v>13.82</v>
       </c>
       <c r="F9">
-        <v>49.69</v>
+        <v>47.62</v>
       </c>
       <c r="G9">
-        <v>43.48</v>
+        <v>41.67</v>
       </c>
       <c r="H9">
-        <v>69.06</v>
+        <v>70.98</v>
       </c>
       <c r="I9">
-        <v>76.97</v>
+        <v>73.77</v>
       </c>
       <c r="J9">
-        <v>70.55</v>
+        <v>79.81</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -805,31 +805,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>88.73999999999999</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="C10">
-        <v>80.83</v>
+        <v>84.65000000000001</v>
       </c>
       <c r="D10">
-        <v>89.37</v>
+        <v>92.81</v>
       </c>
       <c r="E10">
-        <v>31.39</v>
+        <v>30.08</v>
       </c>
       <c r="F10">
-        <v>85.22</v>
+        <v>91.67</v>
       </c>
       <c r="G10">
-        <v>78.36</v>
+        <v>77.14</v>
       </c>
       <c r="H10">
-        <v>84.17</v>
+        <v>88.02</v>
       </c>
       <c r="I10">
-        <v>34.34</v>
+        <v>33.99</v>
       </c>
       <c r="J10">
-        <v>87.86</v>
+        <v>90.55</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -837,31 +837,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>52.52</v>
+        <v>63.26</v>
       </c>
       <c r="C11">
-        <v>39.65</v>
+        <v>53.47</v>
       </c>
       <c r="D11">
-        <v>36.22</v>
+        <v>41.88</v>
       </c>
       <c r="E11">
-        <v>10.41</v>
+        <v>9.98</v>
       </c>
       <c r="F11">
-        <v>30.92</v>
+        <v>29.63</v>
       </c>
       <c r="G11">
-        <v>55.65</v>
+        <v>53.33</v>
       </c>
       <c r="H11">
-        <v>78.65000000000001</v>
+        <v>96.67</v>
       </c>
       <c r="I11">
-        <v>21.81</v>
+        <v>20.9</v>
       </c>
       <c r="J11">
-        <v>54.16</v>
+        <v>53.69</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -869,31 +869,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>113.96</v>
+        <v>109.72</v>
       </c>
       <c r="C12">
-        <v>93.14</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="D12">
-        <v>113.93</v>
+        <v>109.18</v>
       </c>
       <c r="E12">
-        <v>76.09999999999999</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="F12">
-        <v>151.78</v>
+        <v>145.45</v>
       </c>
       <c r="G12">
-        <v>102.15</v>
+        <v>101.27</v>
       </c>
       <c r="H12">
-        <v>82.38</v>
+        <v>81.42</v>
       </c>
       <c r="I12">
-        <v>42.27</v>
+        <v>43.88</v>
       </c>
       <c r="J12">
-        <v>98.16</v>
+        <v>97.78</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -901,31 +901,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>65.08</v>
+        <v>74.43000000000001</v>
       </c>
       <c r="C13">
-        <v>80.15000000000001</v>
+        <v>86.23</v>
       </c>
       <c r="D13">
-        <v>119.95</v>
+        <v>128.39</v>
       </c>
       <c r="E13">
-        <v>23.75</v>
+        <v>22.76</v>
       </c>
       <c r="F13">
-        <v>92.75</v>
+        <v>106.67</v>
       </c>
       <c r="G13">
-        <v>83.48</v>
+        <v>86.67</v>
       </c>
       <c r="H13">
-        <v>87.8</v>
+        <v>102.18</v>
       </c>
       <c r="I13">
-        <v>48.82</v>
+        <v>49.82</v>
       </c>
       <c r="J13">
-        <v>108.21</v>
+        <v>116.67</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -933,31 +933,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>100.61</v>
+        <v>104.76</v>
       </c>
       <c r="C14">
-        <v>132.85</v>
+        <v>138.87</v>
       </c>
       <c r="D14">
-        <v>97.70999999999999</v>
+        <v>113.63</v>
       </c>
       <c r="E14">
-        <v>5.09</v>
+        <v>4.88</v>
       </c>
       <c r="F14">
-        <v>222.61</v>
+        <v>248.89</v>
       </c>
       <c r="G14">
-        <v>84.47</v>
+        <v>80.95</v>
       </c>
       <c r="H14">
-        <v>135.31</v>
+        <v>131.5</v>
       </c>
       <c r="I14">
-        <v>15.99</v>
+        <v>15.32</v>
       </c>
       <c r="J14">
-        <v>81.84</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -965,13 +965,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>51.66</v>
+        <v>52.12</v>
       </c>
       <c r="C15">
-        <v>31.68</v>
+        <v>35.22</v>
       </c>
       <c r="D15">
-        <v>76.12</v>
+        <v>78.89</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>56.52</v>
+        <v>54.17</v>
       </c>
       <c r="H15">
-        <v>59.66</v>
+        <v>60.45</v>
       </c>
       <c r="I15">
-        <v>48.61</v>
+        <v>46.58</v>
       </c>
       <c r="J15">
-        <v>67.66</v>
+        <v>67.58</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -997,31 +997,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>129.24</v>
+        <v>123.86</v>
       </c>
       <c r="C16">
-        <v>96.08</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="D16">
-        <v>118.89</v>
+        <v>113.93</v>
       </c>
       <c r="E16">
-        <v>66.17</v>
+        <v>63.41</v>
       </c>
       <c r="F16">
-        <v>9.94</v>
+        <v>9.52</v>
       </c>
       <c r="G16">
-        <v>61.02</v>
+        <v>58.48</v>
       </c>
       <c r="H16">
-        <v>57.38</v>
+        <v>54.98</v>
       </c>
       <c r="I16">
-        <v>36</v>
+        <v>34.5</v>
       </c>
       <c r="J16">
-        <v>125.22</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1029,31 +1029,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>106.18</v>
+        <v>106.8</v>
       </c>
       <c r="C17">
-        <v>121.92</v>
+        <v>121.12</v>
       </c>
       <c r="D17">
-        <v>113.52</v>
+        <v>120.15</v>
       </c>
       <c r="E17">
-        <v>70.62</v>
+        <v>79.68000000000001</v>
       </c>
       <c r="F17">
-        <v>80.31999999999999</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="G17">
-        <v>76.09</v>
+        <v>81.25</v>
       </c>
       <c r="H17">
-        <v>81.66</v>
+        <v>83.33</v>
       </c>
       <c r="I17">
-        <v>39.78</v>
+        <v>41.95</v>
       </c>
       <c r="J17">
-        <v>93.63</v>
+        <v>96.87</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1061,31 +1061,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>103.68</v>
+        <v>111.85</v>
       </c>
       <c r="C18">
-        <v>95.47</v>
+        <v>102.93</v>
       </c>
       <c r="D18">
-        <v>95.68000000000001</v>
+        <v>118.64</v>
       </c>
       <c r="E18">
-        <v>93.01000000000001</v>
+        <v>145.86</v>
       </c>
       <c r="F18">
-        <v>95.19</v>
+        <v>133.33</v>
       </c>
       <c r="G18">
-        <v>63.24</v>
+        <v>84.84999999999999</v>
       </c>
       <c r="H18">
-        <v>81.62</v>
+        <v>96.86</v>
       </c>
       <c r="I18">
-        <v>49.21</v>
+        <v>61.02</v>
       </c>
       <c r="J18">
-        <v>77.83</v>
+        <v>90.93000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1093,31 +1093,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>111.47</v>
+        <v>109.95</v>
       </c>
       <c r="C19">
-        <v>123.67</v>
+        <v>120.75</v>
       </c>
       <c r="D19">
-        <v>111.11</v>
+        <v>110.43</v>
       </c>
       <c r="E19">
-        <v>108.38</v>
+        <v>103.87</v>
       </c>
       <c r="F19">
-        <v>79.5</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="G19">
-        <v>67.58</v>
+        <v>72.38</v>
       </c>
       <c r="H19">
-        <v>70.18000000000001</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="I19">
-        <v>33.73</v>
+        <v>34.12</v>
       </c>
       <c r="J19">
-        <v>102.3</v>
+        <v>105.88</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1125,31 +1125,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>119.55</v>
+        <v>114.57</v>
       </c>
       <c r="C20">
-        <v>154.72</v>
+        <v>148.27</v>
       </c>
       <c r="D20">
-        <v>125.4</v>
+        <v>120.17</v>
       </c>
       <c r="E20">
-        <v>89.23999999999999</v>
+        <v>85.52</v>
       </c>
       <c r="F20">
-        <v>6.05</v>
+        <v>5.8</v>
       </c>
       <c r="G20">
-        <v>85.02</v>
+        <v>81.48</v>
       </c>
       <c r="H20">
-        <v>123.22</v>
+        <v>118.09</v>
       </c>
       <c r="I20">
-        <v>38.23</v>
+        <v>36.63</v>
       </c>
       <c r="J20">
-        <v>98.44</v>
+        <v>94.34</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1157,31 +1157,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>102.02</v>
+        <v>108.06</v>
       </c>
       <c r="C21">
-        <v>147.74</v>
+        <v>146.05</v>
       </c>
       <c r="D21">
-        <v>107.85</v>
+        <v>122.8</v>
       </c>
       <c r="E21">
-        <v>18.45</v>
+        <v>22.1</v>
       </c>
       <c r="F21">
-        <v>278.26</v>
+        <v>278.79</v>
       </c>
       <c r="G21">
-        <v>85.38</v>
+        <v>87.88</v>
       </c>
       <c r="H21">
-        <v>78.12</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="I21">
-        <v>42.58</v>
+        <v>44.87</v>
       </c>
       <c r="J21">
-        <v>85.02</v>
+        <v>89.45999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1189,31 +1189,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>85.02</v>
+        <v>82.47</v>
       </c>
       <c r="C22">
-        <v>104.35</v>
+        <v>100</v>
       </c>
       <c r="D22">
-        <v>132.31</v>
+        <v>131.65</v>
       </c>
       <c r="E22">
-        <v>42.28</v>
+        <v>40.52</v>
       </c>
       <c r="F22">
-        <v>34.78</v>
+        <v>50</v>
       </c>
       <c r="G22">
-        <v>75.89</v>
+        <v>78.79000000000001</v>
       </c>
       <c r="H22">
-        <v>70.70999999999999</v>
+        <v>70.05</v>
       </c>
       <c r="I22">
-        <v>37.15</v>
+        <v>35.6</v>
       </c>
       <c r="J22">
-        <v>105.38</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1221,31 +1221,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>86.84999999999999</v>
+        <v>84.12</v>
       </c>
       <c r="C23">
-        <v>93.53</v>
+        <v>93.79000000000001</v>
       </c>
       <c r="D23">
-        <v>109.88</v>
+        <v>106.54</v>
       </c>
       <c r="E23">
-        <v>31.9</v>
+        <v>31.14</v>
       </c>
       <c r="F23">
-        <v>51.01</v>
+        <v>51.85</v>
       </c>
       <c r="G23">
-        <v>54.97</v>
+        <v>53.91</v>
       </c>
       <c r="H23">
-        <v>79.16</v>
+        <v>77.39</v>
       </c>
       <c r="I23">
-        <v>37.84</v>
+        <v>36.52</v>
       </c>
       <c r="J23">
-        <v>88.56</v>
+        <v>88.39</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1253,31 +1253,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>39.09</v>
+        <v>37.46</v>
       </c>
       <c r="C24">
-        <v>77.89</v>
+        <v>74.64</v>
       </c>
       <c r="D24">
-        <v>53.58</v>
+        <v>51.35</v>
       </c>
       <c r="E24">
-        <v>13.07</v>
+        <v>12.52</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>21.64</v>
+        <v>23.7</v>
       </c>
       <c r="H24">
-        <v>26.51</v>
+        <v>25.41</v>
       </c>
       <c r="I24">
-        <v>22.15</v>
+        <v>21.23</v>
       </c>
       <c r="J24">
-        <v>37.68</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1285,31 +1285,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>137.13</v>
+        <v>133.06</v>
       </c>
       <c r="C25">
-        <v>105.65</v>
+        <v>110.51</v>
       </c>
       <c r="D25">
-        <v>198.02</v>
+        <v>193.19</v>
       </c>
       <c r="E25">
-        <v>38.19</v>
+        <v>36.59</v>
       </c>
       <c r="F25">
-        <v>122.76</v>
+        <v>133.33</v>
       </c>
       <c r="G25">
-        <v>90.97</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="H25">
-        <v>95.62</v>
+        <v>95.22</v>
       </c>
       <c r="I25">
-        <v>45.23</v>
+        <v>43.62</v>
       </c>
       <c r="J25">
-        <v>132.48</v>
+        <v>137.39</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1317,31 +1317,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>85.81999999999999</v>
+        <v>82.25</v>
       </c>
       <c r="C26">
-        <v>82.66</v>
+        <v>79.22</v>
       </c>
       <c r="D26">
-        <v>129.96</v>
+        <v>124.55</v>
       </c>
       <c r="E26">
-        <v>39.02</v>
+        <v>37.4</v>
       </c>
       <c r="F26">
-        <v>69.56999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="G26">
-        <v>33.93</v>
+        <v>32.52</v>
       </c>
       <c r="H26">
-        <v>76.63</v>
+        <v>73.44</v>
       </c>
       <c r="I26">
-        <v>52.17</v>
+        <v>50</v>
       </c>
       <c r="J26">
-        <v>119.25</v>
+        <v>114.29</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1349,31 +1349,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>86.53</v>
+        <v>82.92</v>
       </c>
       <c r="C27">
-        <v>148.19</v>
+        <v>142.02</v>
       </c>
       <c r="D27">
-        <v>92.48</v>
+        <v>88.62</v>
       </c>
       <c r="E27">
-        <v>41.97</v>
+        <v>40.22</v>
       </c>
       <c r="F27">
-        <v>32.74</v>
+        <v>31.37</v>
       </c>
       <c r="G27">
-        <v>51.37</v>
+        <v>49.23</v>
       </c>
       <c r="H27">
-        <v>100.82</v>
+        <v>96.62</v>
       </c>
       <c r="I27">
-        <v>26.01</v>
+        <v>24.92</v>
       </c>
       <c r="J27">
-        <v>71.3</v>
+        <v>68.33</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1381,31 +1381,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>49.83</v>
+        <v>50.8</v>
       </c>
       <c r="C28">
-        <v>46.69</v>
+        <v>49.01</v>
       </c>
       <c r="D28">
-        <v>74.48</v>
+        <v>77.19</v>
       </c>
       <c r="E28">
-        <v>33.93</v>
+        <v>37.4</v>
       </c>
       <c r="F28">
-        <v>40.58</v>
+        <v>38.89</v>
       </c>
       <c r="G28">
-        <v>30.43</v>
+        <v>33.33</v>
       </c>
       <c r="H28">
-        <v>77.76000000000001</v>
+        <v>82.19</v>
       </c>
       <c r="I28">
-        <v>24.51</v>
+        <v>25.87</v>
       </c>
       <c r="J28">
-        <v>84.64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1413,31 +1413,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>84.63</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="C29">
-        <v>68.64</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="D29">
-        <v>98.62</v>
+        <v>94.51000000000001</v>
       </c>
       <c r="E29">
-        <v>9.220000000000001</v>
+        <v>8.84</v>
       </c>
       <c r="F29">
-        <v>25.3</v>
+        <v>24.24</v>
       </c>
       <c r="G29">
-        <v>64.04000000000001</v>
+        <v>63.49</v>
       </c>
       <c r="H29">
-        <v>81.7</v>
+        <v>79.48</v>
       </c>
       <c r="I29">
-        <v>46.9</v>
+        <v>44.95</v>
       </c>
       <c r="J29">
-        <v>81.79000000000001</v>
+        <v>78.38</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1445,31 +1445,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>78.16</v>
+        <v>77.69</v>
       </c>
       <c r="C30">
-        <v>87.44</v>
+        <v>86.7</v>
       </c>
       <c r="D30">
-        <v>121.19</v>
+        <v>118</v>
       </c>
       <c r="E30">
-        <v>118.28</v>
+        <v>113.35</v>
       </c>
       <c r="F30">
-        <v>63.84</v>
+        <v>64.31</v>
       </c>
       <c r="G30">
-        <v>69.56999999999999</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="H30">
-        <v>78.45999999999999</v>
+        <v>79.27</v>
       </c>
       <c r="I30">
-        <v>42.22</v>
+        <v>42.57</v>
       </c>
       <c r="J30">
-        <v>94.14</v>
+        <v>92.64</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1477,31 +1477,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>97.77</v>
+        <v>97.12</v>
       </c>
       <c r="C31">
-        <v>140.73</v>
+        <v>137.94</v>
       </c>
       <c r="D31">
-        <v>149.4</v>
+        <v>148.34</v>
       </c>
       <c r="E31">
-        <v>33.09</v>
+        <v>31.71</v>
       </c>
       <c r="F31">
-        <v>26.09</v>
+        <v>25</v>
       </c>
       <c r="G31">
-        <v>66.25</v>
+        <v>65.61</v>
       </c>
       <c r="H31">
-        <v>92.3</v>
+        <v>94.23999999999999</v>
       </c>
       <c r="I31">
-        <v>55.1</v>
+        <v>58.55</v>
       </c>
       <c r="J31">
-        <v>108.21</v>
+        <v>106.67</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1509,31 +1509,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>63.61</v>
+        <v>66.09</v>
       </c>
       <c r="C32">
-        <v>130.62</v>
+        <v>133.33</v>
       </c>
       <c r="D32">
-        <v>127.67</v>
+        <v>126.61</v>
       </c>
       <c r="E32">
-        <v>42.42</v>
+        <v>40.65</v>
       </c>
       <c r="F32">
-        <v>27.83</v>
+        <v>53.33</v>
       </c>
       <c r="G32">
-        <v>60.59</v>
+        <v>60.22</v>
       </c>
       <c r="H32">
-        <v>74.28</v>
+        <v>75.38</v>
       </c>
       <c r="I32">
-        <v>35.18</v>
+        <v>37.81</v>
       </c>
       <c r="J32">
-        <v>77.48</v>
+        <v>77.45</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1541,31 +1541,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>78.53</v>
+        <v>75.26000000000001</v>
       </c>
       <c r="C33">
-        <v>72.86</v>
+        <v>69.81999999999999</v>
       </c>
       <c r="D33">
-        <v>135.36</v>
+        <v>129.72</v>
       </c>
       <c r="E33">
-        <v>369.04</v>
+        <v>353.66</v>
       </c>
       <c r="F33">
-        <v>32.74</v>
+        <v>31.37</v>
       </c>
       <c r="G33">
-        <v>87.36</v>
+        <v>83.72</v>
       </c>
       <c r="H33">
-        <v>54.99</v>
+        <v>52.7</v>
       </c>
       <c r="I33">
-        <v>48.74</v>
+        <v>46.71</v>
       </c>
       <c r="J33">
-        <v>69.56999999999999</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1573,31 +1573,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>70.75</v>
+        <v>67.8</v>
       </c>
       <c r="C34">
-        <v>52.47</v>
+        <v>50.29</v>
       </c>
       <c r="D34">
-        <v>100.68</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="E34">
-        <v>130.65</v>
+        <v>125.2</v>
       </c>
       <c r="F34">
-        <v>13.91</v>
+        <v>13.33</v>
       </c>
       <c r="G34">
-        <v>37.46</v>
+        <v>35.9</v>
       </c>
       <c r="H34">
-        <v>93.51000000000001</v>
+        <v>89.62</v>
       </c>
       <c r="I34">
-        <v>60.45</v>
+        <v>57.93</v>
       </c>
       <c r="J34">
-        <v>117.39</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1605,31 +1605,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>82.81</v>
+        <v>85.75</v>
       </c>
       <c r="C35">
-        <v>91.78</v>
+        <v>95.58</v>
       </c>
       <c r="D35">
-        <v>104.13</v>
+        <v>99.8</v>
       </c>
       <c r="E35">
-        <v>99.26000000000001</v>
+        <v>95.12</v>
       </c>
       <c r="F35">
-        <v>204.06</v>
+        <v>195.56</v>
       </c>
       <c r="G35">
-        <v>76.52</v>
+        <v>73.33</v>
       </c>
       <c r="H35">
-        <v>71.81</v>
+        <v>81.72</v>
       </c>
       <c r="I35">
-        <v>27.67</v>
+        <v>30.26</v>
       </c>
       <c r="J35">
-        <v>102.93</v>
+        <v>105.15</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1637,31 +1637,31 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>61.75</v>
+        <v>59.17</v>
       </c>
       <c r="C36">
-        <v>39.11</v>
+        <v>37.48</v>
       </c>
       <c r="D36">
-        <v>86.67</v>
+        <v>83.06</v>
       </c>
       <c r="E36">
-        <v>43.05</v>
+        <v>41.25</v>
       </c>
       <c r="F36">
-        <v>57.29</v>
+        <v>54.9</v>
       </c>
       <c r="G36">
-        <v>88.12</v>
+        <v>84.44</v>
       </c>
       <c r="H36">
-        <v>89.81</v>
+        <v>86.06999999999999</v>
       </c>
       <c r="I36">
-        <v>31.57</v>
+        <v>30.26</v>
       </c>
       <c r="J36">
-        <v>103.67</v>
+        <v>99.34999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SalesTrend/SalesTrend_CKJ.xlsx
+++ b/Data/SalesTrend/SalesTrend_CKJ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>FFTR</t>
   </si>
@@ -44,6 +44,111 @@
   </si>
   <si>
     <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CKJ</t>
+  </si>
+  <si>
+    <t>CKJ10</t>
+  </si>
+  <si>
+    <t>CKJ11</t>
+  </si>
+  <si>
+    <t>CKJ12</t>
+  </si>
+  <si>
+    <t>CKJ13</t>
+  </si>
+  <si>
+    <t>CKJ14</t>
+  </si>
+  <si>
+    <t>CKJ15</t>
+  </si>
+  <si>
+    <t>CKJ16</t>
+  </si>
+  <si>
+    <t>CKJ20</t>
+  </si>
+  <si>
+    <t>CKJ21</t>
+  </si>
+  <si>
+    <t>CKJ22</t>
+  </si>
+  <si>
+    <t>CKJ23</t>
+  </si>
+  <si>
+    <t>CKJ24</t>
+  </si>
+  <si>
+    <t>CKJ25</t>
+  </si>
+  <si>
+    <t>CKJ26</t>
+  </si>
+  <si>
+    <t>CKJ30</t>
+  </si>
+  <si>
+    <t>CKJ31</t>
+  </si>
+  <si>
+    <t>CKJ32</t>
+  </si>
+  <si>
+    <t>CKJ33</t>
+  </si>
+  <si>
+    <t>CKJ34</t>
+  </si>
+  <si>
+    <t>CKJ35</t>
+  </si>
+  <si>
+    <t>CKJ40</t>
+  </si>
+  <si>
+    <t>CKJ41</t>
+  </si>
+  <si>
+    <t>CKJ42</t>
+  </si>
+  <si>
+    <t>CKJ43</t>
+  </si>
+  <si>
+    <t>CKJ44</t>
+  </si>
+  <si>
+    <t>CKJ45</t>
+  </si>
+  <si>
+    <t>CKJ46</t>
+  </si>
+  <si>
+    <t>CKJ50</t>
+  </si>
+  <si>
+    <t>CKJ51</t>
+  </si>
+  <si>
+    <t>CKJ52</t>
+  </si>
+  <si>
+    <t>CKJ53</t>
+  </si>
+  <si>
+    <t>CKJ54</t>
+  </si>
+  <si>
+    <t>CKJ55</t>
+  </si>
+  <si>
+    <t>CKJ56</t>
   </si>
 </sst>
 </file>
@@ -401,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +544,1126 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>56.21</v>
+      </c>
+      <c r="C2">
+        <v>41.58</v>
+      </c>
+      <c r="D2">
+        <v>60.61</v>
+      </c>
+      <c r="E2">
+        <v>74.17</v>
+      </c>
+      <c r="F2">
+        <v>57.55</v>
+      </c>
+      <c r="G2">
+        <v>43.44</v>
+      </c>
+      <c r="H2">
+        <v>51.73</v>
+      </c>
+      <c r="I2">
+        <v>30.44</v>
+      </c>
+      <c r="J2">
+        <v>59.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>41.97</v>
+      </c>
+      <c r="C3">
+        <v>34.44</v>
+      </c>
+      <c r="D3">
+        <v>72.05</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>26.84</v>
+      </c>
+      <c r="G3">
+        <v>38.4</v>
+      </c>
+      <c r="H3">
+        <v>36.28</v>
+      </c>
+      <c r="I3">
+        <v>31.74</v>
+      </c>
+      <c r="J3">
+        <v>41.29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>44.84</v>
+      </c>
+      <c r="C4">
+        <v>5.37</v>
+      </c>
+      <c r="D4">
+        <v>30.5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>14.66</v>
+      </c>
+      <c r="I4">
+        <v>13.07</v>
+      </c>
+      <c r="J4">
+        <v>23.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>17.33</v>
+      </c>
+      <c r="C5">
+        <v>23.88</v>
+      </c>
+      <c r="D5">
+        <v>57.22</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>26.83</v>
+      </c>
+      <c r="I5">
+        <v>56.6</v>
+      </c>
+      <c r="J5">
+        <v>31.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>107.24</v>
+      </c>
+      <c r="C6">
+        <v>98.28</v>
+      </c>
+      <c r="D6">
+        <v>136.54</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>147.62</v>
+      </c>
+      <c r="G6">
+        <v>172.22</v>
+      </c>
+      <c r="H6">
+        <v>56.89</v>
+      </c>
+      <c r="I6">
+        <v>88.45999999999999</v>
+      </c>
+      <c r="J6">
+        <v>51.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>29.52</v>
+      </c>
+      <c r="C7">
+        <v>34.83</v>
+      </c>
+      <c r="D7">
+        <v>97.3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>44.32</v>
+      </c>
+      <c r="I7">
+        <v>12.48</v>
+      </c>
+      <c r="J7">
+        <v>58.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>40.24</v>
+      </c>
+      <c r="C8">
+        <v>38.81</v>
+      </c>
+      <c r="D8">
+        <v>105.73</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>55.56</v>
+      </c>
+      <c r="H8">
+        <v>53.01</v>
+      </c>
+      <c r="I8">
+        <v>20.4</v>
+      </c>
+      <c r="J8">
+        <v>52.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>12.54</v>
+      </c>
+      <c r="C9">
+        <v>18.13</v>
+      </c>
+      <c r="D9">
+        <v>13.88</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>9.26</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>16.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>76.29000000000001</v>
+      </c>
+      <c r="C10">
+        <v>53.69</v>
+      </c>
+      <c r="D10">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E10">
+        <v>132.77</v>
+      </c>
+      <c r="F10">
+        <v>107.36</v>
+      </c>
+      <c r="G10">
+        <v>80.29000000000001</v>
+      </c>
+      <c r="H10">
+        <v>63.79</v>
+      </c>
+      <c r="I10">
+        <v>15.13</v>
+      </c>
+      <c r="J10">
+        <v>69.20999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>38.46</v>
+      </c>
+      <c r="D11">
+        <v>18.22</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>23.48</v>
+      </c>
+      <c r="H11">
+        <v>5.99</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>140.37</v>
+      </c>
+      <c r="C12">
+        <v>56.05</v>
+      </c>
+      <c r="D12">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="E12">
+        <v>378.89</v>
+      </c>
+      <c r="F12">
+        <v>172.22</v>
+      </c>
+      <c r="G12">
+        <v>139.93</v>
+      </c>
+      <c r="H12">
+        <v>88.55</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>102.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>90.54000000000001</v>
+      </c>
+      <c r="C13">
+        <v>66</v>
+      </c>
+      <c r="D13">
+        <v>88.77</v>
+      </c>
+      <c r="E13">
+        <v>110.36</v>
+      </c>
+      <c r="F13">
+        <v>73.81</v>
+      </c>
+      <c r="G13">
+        <v>49.21</v>
+      </c>
+      <c r="H13">
+        <v>99.51000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>65.40000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>53.5</v>
+      </c>
+      <c r="C14">
+        <v>50.73</v>
+      </c>
+      <c r="D14">
+        <v>102.64</v>
+      </c>
+      <c r="E14">
+        <v>60.19</v>
+      </c>
+      <c r="F14">
+        <v>86.11</v>
+      </c>
+      <c r="G14">
+        <v>86.11</v>
+      </c>
+      <c r="H14">
+        <v>34.65</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>64.18000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>13.51</v>
+      </c>
+      <c r="C15">
+        <v>28.29</v>
+      </c>
+      <c r="D15">
+        <v>40.8</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>229.63</v>
+      </c>
+      <c r="G15">
+        <v>24.03</v>
+      </c>
+      <c r="H15">
+        <v>39.97</v>
+      </c>
+      <c r="I15">
+        <v>42.01</v>
+      </c>
+      <c r="J15">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>123.35</v>
+      </c>
+      <c r="C16">
+        <v>96.33</v>
+      </c>
+      <c r="D16">
+        <v>148.86</v>
+      </c>
+      <c r="E16">
+        <v>220.71</v>
+      </c>
+      <c r="F16">
+        <v>103.33</v>
+      </c>
+      <c r="G16">
+        <v>87.94</v>
+      </c>
+      <c r="H16">
+        <v>82.15000000000001</v>
+      </c>
+      <c r="I16">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="J16">
+        <v>86.77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>61.13</v>
+      </c>
+      <c r="C17">
+        <v>51.16</v>
+      </c>
+      <c r="D17">
+        <v>49.39</v>
+      </c>
+      <c r="E17">
+        <v>48.22</v>
+      </c>
+      <c r="F17">
+        <v>54.96</v>
+      </c>
+      <c r="G17">
+        <v>47.62</v>
+      </c>
+      <c r="H17">
+        <v>50.13</v>
+      </c>
+      <c r="I17">
+        <v>27.52</v>
+      </c>
+      <c r="J17">
+        <v>70.06999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>7.42</v>
+      </c>
+      <c r="C18">
+        <v>12.78</v>
+      </c>
+      <c r="D18">
+        <v>12.79</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>18.04</v>
+      </c>
+      <c r="I18">
+        <v>16.11</v>
+      </c>
+      <c r="J18">
+        <v>47.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>102.62</v>
+      </c>
+      <c r="C19">
+        <v>100.86</v>
+      </c>
+      <c r="D19">
+        <v>68.89</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>34.44</v>
+      </c>
+      <c r="G19">
+        <v>45.93</v>
+      </c>
+      <c r="H19">
+        <v>51.41</v>
+      </c>
+      <c r="I19">
+        <v>38.16</v>
+      </c>
+      <c r="J19">
+        <v>88.95999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>82.28</v>
+      </c>
+      <c r="C20">
+        <v>61.02</v>
+      </c>
+      <c r="D20">
+        <v>48.47</v>
+      </c>
+      <c r="E20">
+        <v>189.45</v>
+      </c>
+      <c r="F20">
+        <v>258.33</v>
+      </c>
+      <c r="G20">
+        <v>163.16</v>
+      </c>
+      <c r="H20">
+        <v>54.51</v>
+      </c>
+      <c r="I20">
+        <v>14.65</v>
+      </c>
+      <c r="J20">
+        <v>85.69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>40.52</v>
+      </c>
+      <c r="C21">
+        <v>7.49</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>51.67</v>
+      </c>
+      <c r="F21">
+        <v>49.21</v>
+      </c>
+      <c r="G21">
+        <v>43.06</v>
+      </c>
+      <c r="H21">
+        <v>39.48</v>
+      </c>
+      <c r="I21">
+        <v>88.31999999999999</v>
+      </c>
+      <c r="J21">
+        <v>50.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>53.39</v>
+      </c>
+      <c r="C22">
+        <v>76.44</v>
+      </c>
+      <c r="D22">
+        <v>108.85</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>87.52</v>
+      </c>
+      <c r="I22">
+        <v>9.83</v>
+      </c>
+      <c r="J22">
+        <v>76.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>58.83</v>
+      </c>
+      <c r="C23">
+        <v>42.45</v>
+      </c>
+      <c r="D23">
+        <v>52.2</v>
+      </c>
+      <c r="E23">
+        <v>37.66</v>
+      </c>
+      <c r="F23">
+        <v>71.76000000000001</v>
+      </c>
+      <c r="G23">
+        <v>31.57</v>
+      </c>
+      <c r="H23">
+        <v>47.81</v>
+      </c>
+      <c r="I23">
+        <v>45.86</v>
+      </c>
+      <c r="J23">
+        <v>52.97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="C24">
+        <v>59.95</v>
+      </c>
+      <c r="D24">
+        <v>88.66</v>
+      </c>
+      <c r="E24">
+        <v>278.84</v>
+      </c>
+      <c r="F24">
+        <v>258.33</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>53.59</v>
+      </c>
+      <c r="I24">
+        <v>47.31</v>
+      </c>
+      <c r="J24">
+        <v>76.76000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>17.94</v>
+      </c>
+      <c r="C25">
+        <v>21.88</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>64.58</v>
+      </c>
+      <c r="G25">
+        <v>44.44</v>
+      </c>
+      <c r="H25">
+        <v>22.25</v>
+      </c>
+      <c r="I25">
+        <v>55.58</v>
+      </c>
+      <c r="J25">
+        <v>17.94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>35.62</v>
+      </c>
+      <c r="C26">
+        <v>27.26</v>
+      </c>
+      <c r="D26">
+        <v>14.62</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>19.03</v>
+      </c>
+      <c r="I26">
+        <v>71.87</v>
+      </c>
+      <c r="J26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>142.48</v>
+      </c>
+      <c r="C27">
+        <v>117.22</v>
+      </c>
+      <c r="D27">
+        <v>89.89</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>158.97</v>
+      </c>
+      <c r="G27">
+        <v>39.74</v>
+      </c>
+      <c r="H27">
+        <v>83.18000000000001</v>
+      </c>
+      <c r="I27">
+        <v>27.84</v>
+      </c>
+      <c r="J27">
+        <v>113.55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>50.18</v>
+      </c>
+      <c r="C28">
+        <v>19.79</v>
+      </c>
+      <c r="D28">
+        <v>45.93</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>58.49</v>
+      </c>
+      <c r="H28">
+        <v>59.9</v>
+      </c>
+      <c r="I28">
+        <v>22.01</v>
+      </c>
+      <c r="J28">
+        <v>47.84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>37.44</v>
+      </c>
+      <c r="C29">
+        <v>7.49</v>
+      </c>
+      <c r="D29">
+        <v>58.92</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>31.79</v>
+      </c>
+      <c r="H29">
+        <v>27.19</v>
+      </c>
+      <c r="I29">
+        <v>37.46</v>
+      </c>
+      <c r="J29">
+        <v>64.18000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>41.68</v>
+      </c>
+      <c r="C30">
+        <v>21.72</v>
+      </c>
+      <c r="D30">
+        <v>51.55</v>
+      </c>
+      <c r="E30">
+        <v>163.65</v>
+      </c>
+      <c r="F30">
+        <v>27.56</v>
+      </c>
+      <c r="G30">
+        <v>23.64</v>
+      </c>
+      <c r="H30">
+        <v>63</v>
+      </c>
+      <c r="I30">
+        <v>25.53</v>
+      </c>
+      <c r="J30">
+        <v>61.67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>74.91</v>
+      </c>
+      <c r="C31">
+        <v>70.66</v>
+      </c>
+      <c r="D31">
+        <v>85.56</v>
+      </c>
+      <c r="E31">
+        <v>60.19</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>59.9</v>
+      </c>
+      <c r="H31">
+        <v>133.14</v>
+      </c>
+      <c r="I31">
+        <v>28.65</v>
+      </c>
+      <c r="J31">
+        <v>108.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>17.55</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>28.85</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>57.2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>28.51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>60.91</v>
+      </c>
+      <c r="C33">
+        <v>33.25</v>
+      </c>
+      <c r="D33">
+        <v>60.33</v>
+      </c>
+      <c r="E33">
+        <v>441.43</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>58.49</v>
+      </c>
+      <c r="H33">
+        <v>35.23</v>
+      </c>
+      <c r="I33">
+        <v>31.95</v>
+      </c>
+      <c r="J33">
+        <v>74.40000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>63.56</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>111.91</v>
+      </c>
+      <c r="E34">
+        <v>468.73</v>
+      </c>
+      <c r="F34">
+        <v>295.24</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>60.64</v>
+      </c>
+      <c r="I34">
+        <v>25.07</v>
+      </c>
+      <c r="J34">
+        <v>101.88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>15.64</v>
+      </c>
+      <c r="C35">
+        <v>18.13</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>110.36</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>5.7</v>
+      </c>
+      <c r="I35">
+        <v>18.57</v>
+      </c>
+      <c r="J35">
+        <v>25.83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>11.94</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>22.91</v>
+      </c>
+      <c r="I36">
+        <v>36.02</v>
+      </c>
+      <c r="J36">
+        <v>20.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
